--- a/genie_chart.xlsx
+++ b/genie_chart.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>지수 (JISOO)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>지수 (JISOO)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>심 (心)</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>STAYC (스테이씨)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>Teddy Bear</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>심 (心)</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Teddy Bear</t>
+          <t>After LIKE</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>London Boy</t>
+          <t>파이팅 해야지 (Feat. 이영지)</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>London Boy</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>STAYC (스테이씨)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>OMG</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>Dangerously</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>무지개</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CHRISTIAN</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>Zior Park</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>CHRISTIAN</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>김민석 (멜로망스)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>Attention</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박재정</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>이브, 프시케 그리고 푸른 수염의 아내</t>
+          <t>아버지</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Zior Park</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>이브, 프시케 그리고 푸른 수염의 아내</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ANTIFRAGILE</t>
+          <t>A bientot</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>아버지</t>
+          <t>사랑해 진짜</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>건물 사이에 피어난 장미</t>
+          <t>ANTIFRAGILE</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>손이 참 곱던 그대</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>사랑해 진짜</t>
+          <t>연애편지</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>H1-KEY (하이키)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A bientot</t>
+          <t>건물 사이에 피어난 장미</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>손이 참 곱던 그대</t>
+          <t>인생찬가</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>H1-KEY (하이키)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>보금자리</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>허각</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>보고싶었어</t>
+          <t>Heaven (2023)</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>imase</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>김민석 (멜로망스)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>That's Hilarious</t>
+          <t>취중고백</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>That's Hilarious</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WSG워너비 (4FIRE)</t>
+          <t>#안녕</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TOMBOY</t>
+          <t>해요 (2022)</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>빛이 나는 너에게</t>
+          <t>TOMBOY</t>
         </is>
       </c>
     </row>
@@ -1401,12 +1401,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>imase</t>
+          <t>WSG워너비 (가야G)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The Drum</t>
+          <t>그때 그 순간 그대로 (그그그)</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>던 (DAWN)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Heaven (2023)</t>
+          <t>빛이 나는 너에게</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Alan Walker</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Shut Down</t>
+          <t>The Drum</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>찬란한 하루</t>
+          <t>Nxde</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이채연</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nxde</t>
+          <t>그라데이션</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>The Kid LAROI &amp; Justin Bieber</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>나의 바람 (Wind And Wish)</t>
+          <t>Shut Down</t>
         </is>
       </c>
     </row>
@@ -1581,12 +1581,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>이채연</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>사랑..그게 뭔데</t>
+          <t>Pink Venom</t>
         </is>
       </c>
     </row>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>테이 (Tei)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Pink Venom</t>
+          <t>Monologue</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>새삥 (Prod. by ZICO) (Feat. 호미들)</t>
+          <t>FEARLESS</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>The Kid LAROI &amp; Justin Bieber</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>비투비</t>
+          <t>지아 (Zia)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>그때 그 순간 그대로 (그그그)</t>
+          <t>사랑..그게 뭔데</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>지아 (Zia)</t>
+          <t>비투비</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>When I Get Old</t>
+          <t>나의 바람 (Wind And Wish)</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BLACKPINK</t>
+          <t>Christopher &amp; 청하</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>그라데이션</t>
+          <t>When I Get Old</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>지코 (ZICO)</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Monologue</t>
+          <t>찬란한 하루</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>지코 (ZICO)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Allergy</t>
+          <t>새삥 (Prod. by ZICO) (Feat. 호미들)</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>WSG워너비 (가야G)</t>
+          <t>지아 (Zia)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>사랑하기 싫어</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Christopher &amp; 청하</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>나의 X에게</t>
+          <t>Dynamite</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>사랑하기 싫어</t>
+          <t>나의 X에게</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>테이 (Tei)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>해요 (2022)</t>
+          <t>Allergy</t>
         </is>
       </c>
     </row>
@@ -1841,12 +1841,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>태양</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>오르트구름</t>
+          <t>VIBE (Feat. Jimin of BTS)</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Thirsty</t>
+          <t>ELEVEN</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ELEVEN</t>
+          <t>오르트구름</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>지아 (Zia)</t>
+          <t>Peder Elias</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>#안녕</t>
+          <t>주호</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>잠깐 시간 될까</t>
+          <t>내가 아니라도</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>정국 &amp; 방탄소년단</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>첫 키스에 내 심장은 120BPM</t>
+          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack) (Feat. FIFA Sound)</t>
         </is>
       </c>
     </row>
@@ -1961,12 +1961,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Anne-Marie</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>내가 아니라도</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>신호등</t>
+          <t>Thirsty</t>
         </is>
       </c>
     </row>
@@ -2001,12 +2001,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Peder Elias</t>
+          <t>WSG워너비 (4FIRE)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack) (Feat. FIFA Sound)</t>
+          <t>보고싶었어</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>잔나비</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>그중에 그대를 만나</t>
+          <t>Butter</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>주호</t>
+          <t>BIG Naughty (서동현)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>정이라고 하자 (Feat. 10CM)</t>
         </is>
       </c>
     </row>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>FEARLESS</t>
+          <t>봄날</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>정국 &amp; 방탄소년단</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>정이라고 하자 (Feat. 10CM)</t>
+          <t>잠깐 시간 될까</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Anne-Marie</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>아로하</t>
+          <t>신호등</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>라일락</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>첫 키스에 내 심장은 120BPM</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BIG Naughty (서동현)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>당신을 만나</t>
+          <t>Cookie</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>나의 목소리로</t>
+          <t>희재</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>조정석</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Say I Love You</t>
+          <t>Off My Face</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>Sam Smith &amp; Kim Petras</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VIBE (Feat. Jimin of BTS)</t>
+          <t>Unholy</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Cookie</t>
+          <t>그중에 그대를 만나</t>
         </is>
       </c>
     </row>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>김호중 &amp; 송가인</t>
+          <t>Mina Okabe</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Unholy</t>
+          <t>Every Second</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>발걸음</t>
+          <t>Say I Love You</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>이영지</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Off My Face</t>
+          <t>NOT SORRY (Feat. pH-1) (Prod. by Slom)</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>태양</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>희재</t>
+          <t>밤하늘의 별을 (2020)</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>주주 시크릿</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Every Second</t>
+          <t>밤이 무서워요 (Lonely Night)</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sam Smith &amp; Kim Petras</t>
+          <t>Aimyon</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>상록수</t>
+          <t>Ai Wo Tsutaetaidatoka</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Ai Wo Tsutaetaidatoka</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>NMIXX</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>Love Me Like This</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NOT SORRY (Feat. pH-1) (Prod. by Slom)</t>
+          <t>Weekend</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>에일리 (Ailee)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>나보다 더 사랑해요</t>
+          <t>첫눈처럼 너에게 가겠다</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>10CM &amp; BIG Naughty (서동현)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Love Me Like This</t>
+          <t>딱 10CM만</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>INVU</t>
+          <t>Next Level</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>이홍기 (FT아일랜드)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>That's Not How This Works (Feat. Dan ＋ Shay)</t>
+          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>이우</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
+          <t>상록수</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>주마등</t>
+          <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NMIXX</t>
+          <t>NCT DREAM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>밤하늘의 별을 (2020)</t>
+          <t>Candy</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>San E (산이)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>인생은 뷰티풀</t>
+          <t>Me You (Feat. 백예린 of 15&amp;)</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>헤이즈 (Heize)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>만개 (Prod. 신지후)</t>
+          <t>빙글빙글 (Prod. by R.Tee)</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>장범준</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>빛이 나는 사람</t>
+          <t>Bad Habits</t>
         </is>
       </c>
     </row>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>한강에서 (Feat. BIG Naughty)</t>
+          <t>Rush Hour (Feat. j-hope of BTS)</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>V.O.S</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LOVE me</t>
+          <t>안녕이라고 말하지마</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>밤이 무서워요 (Lonely Night)</t>
+          <t>FRIEND THE END</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>김호중 &amp; 송가인</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bad Habits</t>
+          <t>당신을 만나</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>선물</t>
+          <t>나의 목소리로</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Nostalgia</t>
+          <t>INVU</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
+          <t>LOVE me</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>주주 시크릿</t>
+          <t>BE'O (비오)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>딱 10CM만</t>
+          <t>자격지심 (Feat. ZICO)</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>장범준</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Rush Hour (Feat. j-hope of BTS)</t>
+          <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>빙글빙글 (Prod. by R.Tee)</t>
+          <t>Bad</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Candy</t>
+          <t>That's Not How This Works (Feat. Dan ＋ Shay)</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>이홍기 (FT아일랜드)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>슬픈등</t>
+          <t>Nostalgia</t>
         </is>
       </c>
     </row>
@@ -2921,12 +2921,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>10CM &amp; BIG Naughty (서동현)</t>
+          <t>케이시 (Kassy)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>약속 (約束)</t>
+          <t>언제나 사랑해</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>한강에서 (Feat. BIG Naughty)</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>헤이즈 (Heize)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
+          <t>Permission to Dance</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NCT DREAM</t>
+          <t>싸이 (Psy)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>At My Worst</t>
+          <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>지민</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>이 새벽에 전화하는 건</t>
+          <t>Like Crazy</t>
         </is>
       </c>
     </row>
@@ -3021,12 +3021,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>임한별</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>안녕이라고 말하지마</t>
+          <t>사랑하지 않아서 그랬어</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>자격지심 (Feat. ZICO)</t>
+          <t>Blueming</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>싸이 (Psy)</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Il Mare Calmo Della Sera</t>
+          <t>Love story</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>고백</t>
+          <t>At My Worst</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>황인욱</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>FRIEND THE END</t>
+          <t>Stronger (What Doesn't Kill You)</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>V.O.S</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>strawberry moon</t>
+          <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BE'O (비오)</t>
+          <t>김승민</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Like Crazy</t>
+          <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>디핵 (D-Hack) &amp; PATEKO</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Weekend</t>
+          <t>OHAYO MY NIGHT</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>임한별</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>그리움의 계절</t>
+          <t>Forever Young</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>And July (Feat. DEAN &amp; DJ Friz)</t>
+          <t>Celebrity</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>황인욱</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Next Level</t>
+          <t>이 새벽에 전화하는 건</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Blueming</t>
+          <t>나보다 더 사랑해요</t>
         </is>
       </c>
     </row>
@@ -3281,12 +3281,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>임한별</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>사랑하지 않아서 그랬어</t>
+          <t>strawberry moon</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
+          <t>발걸음</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>헤이즈 (Heize)</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
+          <t>고백</t>
         </is>
       </c>
     </row>
@@ -3341,12 +3341,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>Charlie Puth &amp; 정국 &amp; 방탄소년단</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Love story</t>
+          <t>Left and Right (Feat. Jung Kook of BTS)</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Permission to Dance</t>
+          <t>부동의 첫사랑</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>임한별</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Stronger (What Doesn't Kill You)</t>
+          <t>주마등</t>
         </is>
       </c>
     </row>
@@ -3401,12 +3401,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>12 : 45 (Stripped)</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>김승민</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>바라만 본다</t>
+          <t>F*ck My Life</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>봉훈</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>부동의 첫사랑</t>
+          <t>모든 순간을 기억할게</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>김필</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Agust D</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>사계 (Four Seasons)</t>
+          <t>사람 Pt.2 (Feat. 아이유)</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>F*ck My Life</t>
+          <t>빛이 나는 사람</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>MSG워너비 (M.O.M)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Made You Look</t>
+          <t>바라만 본다</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>Standing Egg (스탠딩 에그)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>오래된 노래</t>
         </is>
       </c>
     </row>
@@ -3561,12 +3561,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>김필</t>
+          <t>etham</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>첫눈처럼 너에게 가겠다</t>
+          <t>12 : 45 (Stripped)</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>지민</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>이 세상 끝까지</t>
+          <t>Angel Pt. 1 (Feat. JVKE &amp; Muni Long) (FAST X Soundtrack)</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>Meghan Trainor</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Angel Pt. 1 (Feat. JVKE &amp; Muni Long) (FAST X Soundtrack)</t>
+          <t>Made You Look</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Meghan Trainor</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>내 손을 잡아</t>
+          <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
         </is>
       </c>
     </row>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>화려하지 않은 고백</t>
+          <t>만개 (Prod. 신지후)</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>에일리 (Ailee)</t>
+          <t>헤이즈 (Heize)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>사람 Pt.2 (Feat. 아이유)</t>
+          <t>헤픈 우연</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>먼데이 키즈 (Monday Kiz) &amp; #안녕</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Left and Right (Feat. Jung Kook of BTS)</t>
+          <t>Yet To Come</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>ITZY (있지)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>OHAYO MY NIGHT</t>
+          <t>달라달라</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>인생은 뷰티풀</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>규현 (KYUHYUN)</t>
+          <t>John K</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Celebrity</t>
+          <t>parachute</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Agust D</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Charlie Puth &amp; 정국 &amp; 방탄소년단</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Yet To Come</t>
+          <t>예뻤어</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>디핵 (D-Hack) &amp; PATEKO</t>
+          <t>Sam Ryder</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>헤픈 우연</t>
+          <t>Tiny Riot</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
+          <t>Shape Of You</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>그 밤</t>
+          <t>내 손을 잡아</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3861,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tiny Riot</t>
+          <t>Salty &amp; Sweet</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>그리워하다</t>
+          <t>슬픈등</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>헤이즈 (Heize)</t>
+          <t>비투비</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>라일락</t>
+          <t>그리워하다</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Shape Of You</t>
+          <t>팡파레</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>봉훈</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Salty &amp; Sweet</t>
+          <t>Memories</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Sam Ryder</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>오래된 노래</t>
+          <t>있잖아</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>비투비</t>
+          <t>한동근</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>나랑 같이 걸을래 (바른연애 길잡이 X 적재)</t>
+          <t>새벽에 걸려온 너의 전화는</t>
         </is>
       </c>
     </row>
@@ -4001,12 +4001,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>안녕이라고 말하지마</t>
+          <t>약속 (約束)</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>조정석</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>새벽에 걸려온 너의 전화는</t>
+          <t>아로하</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>강민경 (다비치) &amp; 잔나비 최정훈</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>우린 그렇게 사랑해서</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4061,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Standing Egg (스탠딩 에그)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>우린 그렇게 사랑해서</t>
+          <t>Il Mare Calmo Della Sera</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>적재</t>
+          <t>OneRepublic</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Dolphin</t>
+          <t>I Ain't Worried</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>이찬원</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>도깨비불 (Illusion)</t>
+          <t>풍등</t>
         </is>
       </c>
     </row>
@@ -4121,12 +4121,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>한동근</t>
+          <t>Red Velvet (레드벨벳)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>All I Wanna Do (K) (Feat. Hoody &amp; Loco)</t>
+          <t>Feel My Rhythm</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>먼데이 키즈 (Monday Kiz) &amp; #안녕</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Memories</t>
+          <t>이 세상 끝까지</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4161,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>강민경 (다비치) &amp; 잔나비 최정훈</t>
+          <t>sokodomo</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>내 마음이 움찔했던 순간 (취향저격 그녀 X 규현)</t>
+          <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>오마이걸 (OH MY GIRL)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>팡파레</t>
+          <t>도깨비불 (Illusion)</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Comethru</t>
+          <t>그리움의 계절</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>박재범</t>
+          <t>Benson Boone</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>풍등</t>
+          <t>GHOST TOWN</t>
         </is>
       </c>
     </row>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>효린 &amp; 창모 (CHANGMO)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>GHOST TOWN</t>
+          <t>BLUE MOON (Prod. by GroovyRoom)</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>규현 (KYUHYUN)</t>
+          <t>주호</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>10,000 Hours</t>
+          <t>잘가요</t>
         </is>
       </c>
     </row>
@@ -4281,12 +4281,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>Dan ＋ Shay &amp; Justin Bieber</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>10,000 Hours</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4301,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Jeremy Zucker</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>있잖아</t>
+          <t>거북이</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>이찬원</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>그대를 알고</t>
+          <t>HOT</t>
         </is>
       </c>
     </row>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Benson Boone</t>
+          <t>DEAN</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>사랑했나봐</t>
+          <t>D (half moon) (Feat. 개코)</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Dan ＋ Shay &amp; Justin Bieber</t>
+          <t>탑현</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>인생네컷 (Feat. Leellamarz)</t>
+          <t>사랑한다고 말해줘</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>송하예</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>잘가요</t>
+          <t>그대를 알고</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>씨스타 (Sistar)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Feel My Rhythm</t>
+          <t>Loving U (러빙유)</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>송하예</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>결국엔 너에게 닿아서</t>
+          <t>Don't Know What To Do</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>BLUE MOON (Prod. by GroovyRoom)</t>
+          <t>사랑했나봐</t>
         </is>
       </c>
     </row>
